--- a/notebooks/sdi_gan_parameter_sweep/parameter_sweep_sdigan_regularization.xlsx
+++ b/notebooks/sdi_gan_parameter_sweep/parameter_sweep_sdigan_regularization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PB\Documents\GithubRepos\Generative-Models-for-CERN-Fast-Simulations\notebooks\gan_proton_15_2312\sin_gan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PB\Documents\GithubRepos\Generative-Models-for-CERN-Fast-Simulations\notebooks\sdi_gan_parameter_sweep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC989D8-76B3-4460-80E4-5F8D0850C446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4AE9AD-287D-4A4F-9E79-5F7E14F850C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-14256" windowWidth="25370" windowHeight="14374" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="15238" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_sweep_sdigan_regulari" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>15_2133</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>diversity</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -928,7 +925,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1021,8 +1018,8 @@
       <c r="F5" s="1">
         <v>0.01</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
+      <c r="G5" s="2">
+        <v>8.8670000000000009</v>
       </c>
       <c r="H5" s="2">
         <v>8.8670000000000009</v>
